--- a/Figurenboek OKO/1. Configuratie Figurenboek.xlsx
+++ b/Figurenboek OKO/1. Configuratie Figurenboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/2023 Gezondheidsmonitor Jeugd/5. Eindproducten/OKO/Figurenboek gewogen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanderve\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1127" documentId="13_ncr:1_{EC26E292-6E83-4CCA-AA08-7C784AD2F7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B498F49-99DE-4A80-BA30-55F19F6E75AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5E5A5C-2626-4EA3-B220-F97B9EC95031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10668" yWindow="-17592" windowWidth="30936" windowHeight="16896" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportconfiguratie" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Slideconfiguratie Limburg-Noord" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Slideconfiguratie Limburg-Noord'!$B$1:$N$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Slideconfiguratie Limburg-Noord'!$A$1:$N$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slideconfiguratie OKO volledig'!$B$1:$N$110</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="141">
   <si>
     <t>omschrijving</t>
   </si>
@@ -512,9 +512,6 @@
     <t>SOOSK3S5</t>
   </si>
   <si>
-    <t>SFOSK3S1</t>
-  </si>
-  <si>
     <t>SBRLK3S11</t>
   </si>
   <si>
@@ -795,6 +792,12 @@
   </si>
   <si>
     <t>naam_aanduiding</t>
+  </si>
+  <si>
+    <t>SBOSK3S7</t>
+  </si>
+  <si>
+    <t>LOAGKA316</t>
   </si>
 </sst>
 </file>
@@ -1337,54 +1340,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1399,7 +1402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284AC237-AFC3-455A-A8D1-65A1323B6D45}">
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -1424,7 +1427,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1436,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1454,27 +1457,27 @@
         <v>8</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
@@ -1484,18 +1487,18 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>12</v>
@@ -1507,7 +1510,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" s="2">
         <v>2023</v>
@@ -1520,18 +1523,18 @@
         <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
@@ -1542,10 +1545,10 @@
       <c r="F4" s="11"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4" s="2">
         <v>2023</v>
@@ -1558,21 +1561,21 @@
         <v>2</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>5</v>
@@ -1581,7 +1584,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="2">
         <v>2023</v>
@@ -1594,21 +1597,21 @@
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>5</v>
@@ -1616,10 +1619,10 @@
       <c r="F6" s="11"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="2">
         <v>2023</v>
@@ -1632,21 +1635,21 @@
         <v>3</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>5</v>
@@ -1655,7 +1658,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2">
         <v>2023</v>
@@ -1668,21 +1671,21 @@
         <v>4</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>5</v>
@@ -1690,10 +1693,10 @@
       <c r="F8" s="11"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="2">
         <v>2023</v>
@@ -1706,21 +1709,21 @@
         <v>4</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>5</v>
@@ -1729,7 +1732,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="2">
         <v>2023</v>
@@ -1742,21 +1745,21 @@
         <v>5</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>5</v>
@@ -1764,10 +1767,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="2">
         <v>2023</v>
@@ -1780,21 +1783,21 @@
         <v>5</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>5</v>
@@ -1803,7 +1806,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J11" s="2">
         <v>2023</v>
@@ -1816,21 +1819,21 @@
         <v>6</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>5</v>
@@ -1838,10 +1841,10 @@
       <c r="F12" s="11"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="2">
         <v>2023</v>
@@ -1854,21 +1857,21 @@
         <v>6</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>5</v>
@@ -1877,7 +1880,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="2">
         <v>2023</v>
@@ -1890,21 +1893,21 @@
         <v>7</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>5</v>
@@ -1912,10 +1915,10 @@
       <c r="F14" s="11"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="2">
         <v>2023</v>
@@ -1928,30 +1931,30 @@
         <v>7</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="2">
         <v>2023</v>
@@ -1963,28 +1966,28 @@
         <v>8</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F16" s="11"/>
       <c r="I16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="2">
         <v>2023</v>
@@ -1996,18 +1999,18 @@
         <v>9</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>32</v>
@@ -2017,7 +2020,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="I17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J17" s="2">
         <v>2023</v>
@@ -2029,18 +2032,18 @@
         <v>10</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>32</v>
@@ -2050,10 +2053,10 @@
       </c>
       <c r="F18" s="11"/>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="2">
         <v>2023</v>
@@ -2065,18 +2068,18 @@
         <v>10</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>33</v>
@@ -2086,7 +2089,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="I19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J19" s="2">
         <v>2023</v>
@@ -2098,18 +2101,18 @@
         <v>11</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>33</v>
@@ -2119,10 +2122,10 @@
       </c>
       <c r="F20" s="11"/>
       <c r="H20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J20" s="2">
         <v>2023</v>
@@ -2134,18 +2137,18 @@
         <v>11</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
@@ -2155,7 +2158,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="I21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J21" s="2">
         <v>2023</v>
@@ -2167,18 +2170,18 @@
         <v>12</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>34</v>
@@ -2188,10 +2191,10 @@
       </c>
       <c r="F22" s="11"/>
       <c r="H22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J22" s="2">
         <v>2023</v>
@@ -2203,18 +2206,18 @@
         <v>12</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>35</v>
@@ -2224,7 +2227,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="I23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J23" s="2">
         <v>2023</v>
@@ -2236,18 +2239,18 @@
         <v>13</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>35</v>
@@ -2257,10 +2260,10 @@
       </c>
       <c r="F24" s="11"/>
       <c r="H24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J24" s="2">
         <v>2023</v>
@@ -2272,18 +2275,18 @@
         <v>13</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>40</v>
@@ -2293,7 +2296,7 @@
       </c>
       <c r="F25" s="21"/>
       <c r="I25" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J25" s="18">
         <v>2023</v>
@@ -2306,18 +2309,18 @@
         <v>14</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>40</v>
@@ -2327,10 +2330,10 @@
       </c>
       <c r="F26" s="21"/>
       <c r="H26" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J26" s="18">
         <v>2023</v>
@@ -2343,18 +2346,18 @@
         <v>14</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>41</v>
@@ -2364,7 +2367,7 @@
       </c>
       <c r="F27" s="21"/>
       <c r="I27" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J27" s="18">
         <v>2023</v>
@@ -2377,18 +2380,18 @@
         <v>15</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>41</v>
@@ -2398,10 +2401,10 @@
       </c>
       <c r="F28" s="21"/>
       <c r="H28" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J28" s="18">
         <v>2023</v>
@@ -2414,18 +2417,18 @@
         <v>15</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>42</v>
@@ -2435,7 +2438,7 @@
       </c>
       <c r="F29" s="21"/>
       <c r="I29" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J29" s="18">
         <v>2023</v>
@@ -2448,18 +2451,18 @@
         <v>16</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>42</v>
@@ -2469,10 +2472,10 @@
       </c>
       <c r="F30" s="21"/>
       <c r="H30" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J30" s="18">
         <v>2023</v>
@@ -2485,18 +2488,18 @@
         <v>16</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>43</v>
@@ -2506,7 +2509,7 @@
       </c>
       <c r="F31" s="21"/>
       <c r="I31" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J31" s="18">
         <v>2023</v>
@@ -2519,18 +2522,18 @@
         <v>17</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>43</v>
@@ -2540,10 +2543,10 @@
       </c>
       <c r="F32" s="21"/>
       <c r="H32" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J32" s="18">
         <v>2023</v>
@@ -2556,18 +2559,18 @@
         <v>17</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>44</v>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="F33" s="21"/>
       <c r="I33" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J33" s="18">
         <v>2023</v>
@@ -2590,18 +2593,18 @@
         <v>18</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>44</v>
@@ -2611,10 +2614,10 @@
       </c>
       <c r="F34" s="21"/>
       <c r="H34" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J34" s="18">
         <v>2023</v>
@@ -2627,28 +2630,28 @@
         <v>18</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="21"/>
       <c r="I35" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J35" s="18">
         <v>2023</v>
@@ -2661,31 +2664,31 @@
         <v>19</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F36" s="21"/>
       <c r="H36" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J36" s="18">
         <v>2023</v>
@@ -2698,18 +2701,18 @@
         <v>19</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -2719,7 +2722,7 @@
       </c>
       <c r="F37" s="11"/>
       <c r="I37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J37" s="2">
         <v>2023</v>
@@ -2731,18 +2734,18 @@
         <v>20</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -2752,10 +2755,10 @@
       </c>
       <c r="F38" s="11"/>
       <c r="H38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J38" s="2">
         <v>2023</v>
@@ -2767,28 +2770,28 @@
         <v>20</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="11"/>
       <c r="I39" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J39" s="2">
         <v>2023</v>
@@ -2800,31 +2803,31 @@
         <v>21</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="11"/>
       <c r="H40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J40" s="2">
         <v>2023</v>
@@ -2836,18 +2839,18 @@
         <v>21</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -2857,7 +2860,7 @@
       </c>
       <c r="F41" s="11"/>
       <c r="I41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J41" s="2">
         <v>2023</v>
@@ -2869,18 +2872,18 @@
         <v>22</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
@@ -2890,10 +2893,10 @@
       </c>
       <c r="F42" s="11"/>
       <c r="H42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J42" s="2">
         <v>2023</v>
@@ -2905,18 +2908,18 @@
         <v>22</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>11</v>
@@ -2926,7 +2929,7 @@
       </c>
       <c r="F43" s="11"/>
       <c r="I43" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J43" s="2">
         <v>2023</v>
@@ -2938,18 +2941,18 @@
         <v>23</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>11</v>
@@ -2959,10 +2962,10 @@
       </c>
       <c r="F44" s="11"/>
       <c r="H44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J44" s="2">
         <v>2023</v>
@@ -2974,18 +2977,18 @@
         <v>23</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>13</v>
@@ -2995,7 +2998,7 @@
       </c>
       <c r="F45" s="11"/>
       <c r="I45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J45" s="2">
         <v>2023</v>
@@ -3007,18 +3010,18 @@
         <v>24</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>13</v>
@@ -3028,10 +3031,10 @@
       </c>
       <c r="F46" s="11"/>
       <c r="H46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J46" s="2">
         <v>2023</v>
@@ -3043,28 +3046,28 @@
         <v>24</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="21"/>
       <c r="I47" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J47" s="18">
         <v>2023</v>
@@ -3077,31 +3080,31 @@
         <v>25</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="21"/>
       <c r="H48" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J48" s="18">
         <v>2023</v>
@@ -3114,21 +3117,21 @@
         <v>25</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>5</v>
@@ -3136,7 +3139,7 @@
       <c r="F49" s="11"/>
       <c r="H49" s="14"/>
       <c r="I49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J49" s="2">
         <v>2023</v>
@@ -3148,31 +3151,31 @@
         <v>26</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F50" s="11"/>
       <c r="H50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J50" s="2">
         <v>2023</v>
@@ -3184,28 +3187,28 @@
         <v>26</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F51" s="11"/>
       <c r="I51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J51" s="2">
         <v>2023</v>
@@ -3217,31 +3220,31 @@
         <v>27</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="11"/>
       <c r="H52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J52" s="2">
         <v>2023</v>
@@ -3253,28 +3256,28 @@
         <v>27</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F53" s="11"/>
       <c r="I53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J53" s="2">
         <v>2023</v>
@@ -3286,31 +3289,31 @@
         <v>28</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="11"/>
       <c r="H54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J54" s="2">
         <v>2023</v>
@@ -3322,21 +3325,21 @@
         <v>28</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>5</v>
@@ -3344,7 +3347,7 @@
       <c r="F55" s="11"/>
       <c r="H55" s="14"/>
       <c r="I55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J55" s="2">
         <v>2023</v>
@@ -3356,31 +3359,31 @@
         <v>29</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="11"/>
       <c r="H56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J56" s="2">
         <v>2023</v>
@@ -3392,18 +3395,18 @@
         <v>29</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>14</v>
@@ -3414,7 +3417,7 @@
       <c r="F57" s="11"/>
       <c r="H57" s="14"/>
       <c r="I57" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J57" s="2">
         <v>2023</v>
@@ -3426,18 +3429,18 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>14</v>
@@ -3447,10 +3450,10 @@
       </c>
       <c r="F58" s="11"/>
       <c r="H58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J58" s="2">
         <v>2023</v>
@@ -3462,33 +3465,33 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J59" s="2">
         <v>2023</v>
@@ -3500,33 +3503,33 @@
         <v>31</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J60" s="2">
         <v>2023</v>
@@ -3538,33 +3541,33 @@
         <v>32</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J61" s="2">
         <v>2023</v>
@@ -3576,18 +3579,18 @@
         <v>33</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>31</v>
@@ -3596,13 +3599,13 @@
         <v>5</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J62" s="2">
         <v>2023</v>
@@ -3614,18 +3617,18 @@
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>31</v>
@@ -3634,13 +3637,13 @@
         <v>5</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J63" s="2">
         <v>2023</v>
@@ -3652,18 +3655,18 @@
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>31</v>
@@ -3672,13 +3675,13 @@
         <v>5</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J64" s="2">
         <v>2023</v>
@@ -3690,18 +3693,18 @@
         <v>36</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>31</v>
@@ -3710,13 +3713,13 @@
         <v>5</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J65" s="2">
         <v>2023</v>
@@ -3728,33 +3731,33 @@
         <v>37</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J66" s="2">
         <v>2023</v>
@@ -3766,18 +3769,18 @@
         <v>38</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>31</v>
@@ -3786,13 +3789,13 @@
         <v>5</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>33</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J67" s="18">
         <v>2023</v>
@@ -3805,33 +3808,33 @@
         <v>39</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>33</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J68" s="18">
         <v>2023</v>
@@ -3844,18 +3847,18 @@
         <v>40</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>31</v>
@@ -3864,13 +3867,13 @@
         <v>5</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J69" s="2">
         <v>2023</v>
@@ -3882,33 +3885,33 @@
         <v>41</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J70" s="2">
         <v>2023</v>
@@ -3920,18 +3923,18 @@
         <v>42</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>31</v>
@@ -3940,13 +3943,13 @@
         <v>5</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J71" s="2">
         <v>2023</v>
@@ -3958,33 +3961,33 @@
         <v>43</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J72" s="2">
         <v>2023</v>
@@ -3996,18 +3999,18 @@
         <v>44</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>12</v>
@@ -4016,13 +4019,13 @@
         <v>5</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J73" s="2">
         <v>2023</v>
@@ -4034,18 +4037,18 @@
         <v>45</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>12</v>
@@ -4054,13 +4057,13 @@
         <v>5</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J74" s="2">
         <v>2023</v>
@@ -4072,18 +4075,18 @@
         <v>46</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>12</v>
@@ -4092,13 +4095,13 @@
         <v>5</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J75" s="2">
         <v>2023</v>
@@ -4110,18 +4113,18 @@
         <v>47</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>12</v>
@@ -4130,13 +4133,13 @@
         <v>5</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J76" s="2">
         <v>2023</v>
@@ -4148,18 +4151,18 @@
         <v>48</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D77" s="21" t="s">
         <v>31</v>
@@ -4168,13 +4171,13 @@
         <v>5</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>40</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J77" s="18">
         <v>2023</v>
@@ -4187,33 +4190,33 @@
         <v>49</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>40</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J78" s="18">
         <v>2023</v>
@@ -4226,18 +4229,18 @@
         <v>50</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>31</v>
@@ -4246,13 +4249,13 @@
         <v>5</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>41</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J79" s="18">
         <v>2023</v>
@@ -4265,33 +4268,33 @@
         <v>51</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>41</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J80" s="18">
         <v>2023</v>
@@ -4304,18 +4307,18 @@
         <v>52</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D81" s="21" t="s">
         <v>31</v>
@@ -4324,13 +4327,13 @@
         <v>5</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>42</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J81" s="18">
         <v>2023</v>
@@ -4343,33 +4346,33 @@
         <v>53</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E82" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H82" s="18" t="s">
         <v>42</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J82" s="18">
         <v>2023</v>
@@ -4382,18 +4385,18 @@
         <v>54</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D83" s="21" t="s">
         <v>31</v>
@@ -4402,13 +4405,13 @@
         <v>5</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>43</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J83" s="18">
         <v>2023</v>
@@ -4421,33 +4424,33 @@
         <v>55</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>43</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J84" s="18">
         <v>2023</v>
@@ -4460,18 +4463,18 @@
         <v>56</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D85" s="21" t="s">
         <v>31</v>
@@ -4480,13 +4483,13 @@
         <v>5</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J85" s="18">
         <v>2023</v>
@@ -4499,33 +4502,33 @@
         <v>57</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J86" s="18">
         <v>2023</v>
@@ -4538,18 +4541,18 @@
         <v>58</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>31</v>
@@ -4558,13 +4561,13 @@
         <v>5</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J87" s="18">
         <v>2023</v>
@@ -4577,33 +4580,33 @@
         <v>59</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J88" s="18">
         <v>2023</v>
@@ -4616,18 +4619,18 @@
         <v>60</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>31</v>
@@ -4636,13 +4639,13 @@
         <v>5</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J89" s="2">
         <v>2023</v>
@@ -4654,33 +4657,33 @@
         <v>61</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J90" s="2">
         <v>2023</v>
@@ -4692,18 +4695,18 @@
         <v>62</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>31</v>
@@ -4712,13 +4715,13 @@
         <v>5</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J91" s="2">
         <v>2023</v>
@@ -4730,33 +4733,33 @@
         <v>63</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J92" s="2">
         <v>2023</v>
@@ -4768,18 +4771,18 @@
         <v>64</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>31</v>
@@ -4788,13 +4791,13 @@
         <v>5</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J93" s="2">
         <v>2023</v>
@@ -4806,33 +4809,33 @@
         <v>65</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J94" s="2">
         <v>2023</v>
@@ -4844,18 +4847,18 @@
         <v>66</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>31</v>
@@ -4864,13 +4867,13 @@
         <v>5</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J95" s="2">
         <v>2023</v>
@@ -4882,33 +4885,33 @@
         <v>67</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J96" s="2">
         <v>2023</v>
@@ -4920,18 +4923,18 @@
         <v>68</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>31</v>
@@ -4940,13 +4943,13 @@
         <v>5</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J97" s="2">
         <v>2023</v>
@@ -4958,33 +4961,33 @@
         <v>69</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J98" s="2">
         <v>2023</v>
@@ -4996,18 +4999,18 @@
         <v>70</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>31</v>
@@ -5016,13 +5019,13 @@
         <v>5</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J99" s="18">
         <v>2023</v>
@@ -5035,33 +5038,33 @@
         <v>71</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A100" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J100" s="18">
         <v>2023</v>
@@ -5074,18 +5077,18 @@
         <v>72</v>
       </c>
       <c r="N100" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>31</v>
@@ -5094,13 +5097,13 @@
         <v>5</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J101" s="2">
         <v>2023</v>
@@ -5112,33 +5115,33 @@
         <v>73</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J102" s="2">
         <v>2023</v>
@@ -5150,18 +5153,18 @@
         <v>74</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>31</v>
@@ -5170,13 +5173,13 @@
         <v>5</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J103" s="2">
         <v>2023</v>
@@ -5188,33 +5191,33 @@
         <v>75</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J104" s="2">
         <v>2023</v>
@@ -5226,18 +5229,18 @@
         <v>76</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>31</v>
@@ -5246,13 +5249,13 @@
         <v>5</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J105" s="2">
         <v>2023</v>
@@ -5264,33 +5267,33 @@
         <v>77</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J106" s="2">
         <v>2023</v>
@@ -5302,18 +5305,18 @@
         <v>78</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>31</v>
@@ -5322,13 +5325,13 @@
         <v>5</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J107" s="2">
         <v>2023</v>
@@ -5340,33 +5343,33 @@
         <v>79</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J108" s="2">
         <v>2023</v>
@@ -5378,18 +5381,18 @@
         <v>80</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>31</v>
@@ -5398,13 +5401,13 @@
         <v>5</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H109" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J109" s="2">
         <v>2023</v>
@@ -5416,33 +5419,33 @@
         <v>81</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J110" s="2">
         <v>2023</v>
@@ -5454,18 +5457,18 @@
         <v>82</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>31</v>
@@ -5474,13 +5477,13 @@
         <v>5</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J111" s="2">
         <v>2023</v>
@@ -5492,18 +5495,18 @@
         <v>83</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>31</v>
@@ -5512,13 +5515,13 @@
         <v>5</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J112" s="2">
         <v>2023</v>
@@ -5530,18 +5533,18 @@
         <v>84</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>31</v>
@@ -5550,13 +5553,13 @@
         <v>5</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J113" s="2">
         <v>2023</v>
@@ -5568,388 +5571,38 @@
         <v>85</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J114" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K114" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M114" s="2">
-        <v>86</v>
-      </c>
-      <c r="N114" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J115" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K115" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M115" s="2">
-        <v>87</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J116" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K116" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M116" s="2">
-        <v>88</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J117" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K117" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M117" s="2">
-        <v>89</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J118" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K118" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M118" s="2">
-        <v>90</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H119" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J119" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K119" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M119" s="2">
-        <v>91</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J120" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K120" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M120" s="2">
-        <v>92</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J121" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K121" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M121" s="2">
-        <v>93</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H122" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J122" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K122" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M122" s="2">
-        <v>94</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H123" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J123" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K123" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M123" s="2">
-        <v>95</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K114" s="18"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K115" s="18"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K116" s="18"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K117" s="18"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K118" s="18"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K119" s="18"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K120" s="18"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K121" s="18"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K122" s="18"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K123" s="18"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K124" s="18"/>
@@ -6127,36 +5780,6 @@
     </row>
     <row r="182" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K182" s="18"/>
-    </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K183" s="18"/>
-    </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K184" s="18"/>
-    </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K185" s="18"/>
-    </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K186" s="18"/>
-    </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K187" s="18"/>
-    </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K188" s="18"/>
-    </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K189" s="18"/>
-    </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K190" s="18"/>
-    </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K191" s="18"/>
-    </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K192" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:N110" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}"/>
@@ -6164,14 +5787,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{8088C965-F3A3-4F1E-860B-A2A640233F27}">
       <formula1>"basis, referentie, basis en referentie"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K192" xr:uid="{C7997D59-CDD6-45A1-B503-A47FAAA442E0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K182" xr:uid="{C7997D59-CDD6-45A1-B503-A47FAAA442E0}">
       <formula1>"geen, niveau, indicator"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E128:E1048576 E2:E18 E99:E100 E101:E123 E89:E98 E69:E76 E49:E66 E37:E46 E21:E24 E124:E127 E19:E20 E25:E36 E47:E48 E67:E68 E77:E88" numberStoredAsText="1"/>
+    <ignoredError sqref="E118:E1048576 E2:E18 E99:E100 E101:E113 E89:E98 E69:E76 E49:E66 E37:E46 E21:E24 E114:E117 E19:E20 E25:E36 E47:E48 E67:E68 E77:E88" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -6179,7 +5802,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF87A273-214F-4086-84B2-968343C1FFDC}">
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -6204,7 +5827,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -6216,10 +5839,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -6234,27 +5857,27 @@
         <v>8</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
@@ -6264,18 +5887,18 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>12</v>
@@ -6287,7 +5910,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" s="2">
         <v>2023</v>
@@ -6300,18 +5923,18 @@
         <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
@@ -6322,10 +5945,10 @@
       <c r="F4" s="11"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4" s="2">
         <v>2023</v>
@@ -6338,21 +5961,21 @@
         <v>2</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>5</v>
@@ -6361,7 +5984,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="2">
         <v>2023</v>
@@ -6374,21 +5997,21 @@
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>5</v>
@@ -6396,10 +6019,10 @@
       <c r="F6" s="11"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="2">
         <v>2023</v>
@@ -6412,21 +6035,21 @@
         <v>3</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>5</v>
@@ -6435,7 +6058,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2">
         <v>2023</v>
@@ -6448,21 +6071,21 @@
         <v>4</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>5</v>
@@ -6470,10 +6093,10 @@
       <c r="F8" s="11"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="2">
         <v>2023</v>
@@ -6486,21 +6109,21 @@
         <v>4</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>5</v>
@@ -6509,7 +6132,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="2">
         <v>2023</v>
@@ -6522,21 +6145,21 @@
         <v>5</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>5</v>
@@ -6544,10 +6167,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="2">
         <v>2023</v>
@@ -6560,21 +6183,21 @@
         <v>5</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>5</v>
@@ -6583,7 +6206,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J11" s="2">
         <v>2023</v>
@@ -6596,21 +6219,21 @@
         <v>6</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>5</v>
@@ -6618,10 +6241,10 @@
       <c r="F12" s="11"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="2">
         <v>2023</v>
@@ -6634,21 +6257,21 @@
         <v>6</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>5</v>
@@ -6657,7 +6280,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="2">
         <v>2023</v>
@@ -6670,21 +6293,21 @@
         <v>7</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>5</v>
@@ -6692,10 +6315,10 @@
       <c r="F14" s="11"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="2">
         <v>2023</v>
@@ -6708,30 +6331,30 @@
         <v>7</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="2">
         <v>2023</v>
@@ -6743,28 +6366,28 @@
         <v>8</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F16" s="11"/>
       <c r="I16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="2">
         <v>2023</v>
@@ -6776,18 +6399,18 @@
         <v>9</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
@@ -6797,7 +6420,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="I17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J17" s="2">
         <v>2023</v>
@@ -6809,18 +6432,18 @@
         <v>10</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
@@ -6830,10 +6453,10 @@
       </c>
       <c r="F18" s="11"/>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="2">
         <v>2023</v>
@@ -6845,18 +6468,18 @@
         <v>10</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>34</v>
@@ -6866,7 +6489,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="I19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J19" s="2">
         <v>2023</v>
@@ -6878,18 +6501,18 @@
         <v>11</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
@@ -6899,10 +6522,10 @@
       </c>
       <c r="F20" s="11"/>
       <c r="H20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J20" s="2">
         <v>2023</v>
@@ -6914,18 +6537,18 @@
         <v>11</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>35</v>
@@ -6935,7 +6558,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="I21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J21" s="2">
         <v>2023</v>
@@ -6947,18 +6570,18 @@
         <v>12</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>35</v>
@@ -6968,10 +6591,10 @@
       </c>
       <c r="F22" s="11"/>
       <c r="H22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J22" s="2">
         <v>2023</v>
@@ -6983,18 +6606,18 @@
         <v>12</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -7004,7 +6627,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="I23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J23" s="2">
         <v>2023</v>
@@ -7016,18 +6639,18 @@
         <v>13</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
@@ -7037,10 +6660,10 @@
       </c>
       <c r="F24" s="11"/>
       <c r="H24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J24" s="2">
         <v>2023</v>
@@ -7052,28 +6675,28 @@
         <v>13</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="11"/>
       <c r="I25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J25" s="2">
         <v>2023</v>
@@ -7085,31 +6708,31 @@
         <v>14</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="11"/>
       <c r="H26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J26" s="2">
         <v>2023</v>
@@ -7121,18 +6744,18 @@
         <v>14</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -7142,7 +6765,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="I27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J27" s="2">
         <v>2023</v>
@@ -7154,18 +6777,18 @@
         <v>15</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -7175,10 +6798,10 @@
       </c>
       <c r="F28" s="11"/>
       <c r="H28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J28" s="2">
         <v>2023</v>
@@ -7190,18 +6813,18 @@
         <v>15</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -7211,7 +6834,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="I29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J29" s="2">
         <v>2023</v>
@@ -7223,18 +6846,18 @@
         <v>16</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -7244,10 +6867,10 @@
       </c>
       <c r="F30" s="11"/>
       <c r="H30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J30" s="2">
         <v>2023</v>
@@ -7259,18 +6882,18 @@
         <v>16</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
@@ -7280,7 +6903,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="I31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J31" s="2">
         <v>2023</v>
@@ -7292,18 +6915,18 @@
         <v>17</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
@@ -7313,10 +6936,10 @@
       </c>
       <c r="F32" s="11"/>
       <c r="H32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J32" s="2">
         <v>2023</v>
@@ -7328,21 +6951,21 @@
         <v>17</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>5</v>
@@ -7350,7 +6973,7 @@
       <c r="F33" s="11"/>
       <c r="H33" s="14"/>
       <c r="I33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J33" s="2">
         <v>2023</v>
@@ -7362,31 +6985,31 @@
         <v>18</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="11"/>
       <c r="H34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J34" s="2">
         <v>2023</v>
@@ -7398,28 +7021,28 @@
         <v>18</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="11"/>
       <c r="I35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J35" s="2">
         <v>2023</v>
@@ -7431,31 +7054,31 @@
         <v>19</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F36" s="11"/>
       <c r="H36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J36" s="2">
         <v>2023</v>
@@ -7467,28 +7090,28 @@
         <v>19</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="11"/>
       <c r="I37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J37" s="2">
         <v>2023</v>
@@ -7500,31 +7123,31 @@
         <v>20</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F38" s="11"/>
       <c r="H38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J38" s="2">
         <v>2023</v>
@@ -7536,21 +7159,21 @@
         <v>20</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>5</v>
@@ -7558,7 +7181,7 @@
       <c r="F39" s="11"/>
       <c r="H39" s="14"/>
       <c r="I39" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J39" s="2">
         <v>2023</v>
@@ -7570,31 +7193,31 @@
         <v>21</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="11"/>
       <c r="H40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J40" s="2">
         <v>2023</v>
@@ -7606,18 +7229,18 @@
         <v>21</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>14</v>
@@ -7628,7 +7251,7 @@
       <c r="F41" s="11"/>
       <c r="H41" s="14"/>
       <c r="I41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J41" s="2">
         <v>2023</v>
@@ -7640,18 +7263,18 @@
         <v>22</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>14</v>
@@ -7661,10 +7284,10 @@
       </c>
       <c r="F42" s="11"/>
       <c r="H42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J42" s="2">
         <v>2023</v>
@@ -7676,33 +7299,33 @@
         <v>22</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J43" s="2">
         <v>2023</v>
@@ -7714,33 +7337,33 @@
         <v>23</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J44" s="2">
         <v>2023</v>
@@ -7752,33 +7375,33 @@
         <v>24</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J45" s="2">
         <v>2023</v>
@@ -7790,18 +7413,18 @@
         <v>25</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>31</v>
@@ -7810,13 +7433,13 @@
         <v>5</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J46" s="2">
         <v>2023</v>
@@ -7828,18 +7451,18 @@
         <v>26</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>31</v>
@@ -7848,13 +7471,13 @@
         <v>5</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J47" s="2">
         <v>2023</v>
@@ -7866,18 +7489,18 @@
         <v>27</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>31</v>
@@ -7886,13 +7509,13 @@
         <v>5</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J48" s="2">
         <v>2023</v>
@@ -7904,18 +7527,18 @@
         <v>28</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>31</v>
@@ -7924,13 +7547,13 @@
         <v>5</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J49" s="2">
         <v>2023</v>
@@ -7942,33 +7565,33 @@
         <v>29</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J50" s="2">
         <v>2023</v>
@@ -7980,18 +7603,18 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>31</v>
@@ -8000,13 +7623,13 @@
         <v>5</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J51" s="2">
         <v>2023</v>
@@ -8018,33 +7641,33 @@
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J52" s="2">
         <v>2023</v>
@@ -8056,18 +7679,18 @@
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>31</v>
@@ -8076,13 +7699,13 @@
         <v>5</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J53" s="2">
         <v>2023</v>
@@ -8094,33 +7717,33 @@
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J54" s="2">
         <v>2023</v>
@@ -8132,18 +7755,18 @@
         <v>34</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>12</v>
@@ -8152,13 +7775,13 @@
         <v>5</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J55" s="2">
         <v>2023</v>
@@ -8170,18 +7793,18 @@
         <v>35</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>12</v>
@@ -8190,13 +7813,13 @@
         <v>5</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J56" s="2">
         <v>2023</v>
@@ -8208,18 +7831,18 @@
         <v>36</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>12</v>
@@ -8228,13 +7851,13 @@
         <v>5</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J57" s="2">
         <v>2023</v>
@@ -8246,18 +7869,18 @@
         <v>37</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>12</v>
@@ -8266,13 +7889,13 @@
         <v>5</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J58" s="2">
         <v>2023</v>
@@ -8284,18 +7907,18 @@
         <v>38</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>31</v>
@@ -8304,13 +7927,13 @@
         <v>5</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J59" s="2">
         <v>2023</v>
@@ -8322,33 +7945,33 @@
         <v>39</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J60" s="2">
         <v>2023</v>
@@ -8360,18 +7983,18 @@
         <v>40</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>31</v>
@@ -8380,13 +8003,13 @@
         <v>5</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J61" s="2">
         <v>2023</v>
@@ -8398,33 +8021,33 @@
         <v>41</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J62" s="2">
         <v>2023</v>
@@ -8436,18 +8059,18 @@
         <v>42</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>31</v>
@@ -8456,13 +8079,13 @@
         <v>5</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J63" s="2">
         <v>2023</v>
@@ -8474,33 +8097,33 @@
         <v>43</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J64" s="2">
         <v>2023</v>
@@ -8512,18 +8135,18 @@
         <v>44</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>31</v>
@@ -8532,13 +8155,13 @@
         <v>5</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J65" s="2">
         <v>2023</v>
@@ -8550,33 +8173,33 @@
         <v>45</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J66" s="2">
         <v>2023</v>
@@ -8588,18 +8211,18 @@
         <v>46</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>31</v>
@@ -8608,13 +8231,13 @@
         <v>5</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J67" s="2">
         <v>2023</v>
@@ -8626,33 +8249,33 @@
         <v>47</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J68" s="2">
         <v>2023</v>
@@ -8664,18 +8287,18 @@
         <v>48</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>31</v>
@@ -8684,13 +8307,13 @@
         <v>5</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J69" s="2">
         <v>2023</v>
@@ -8702,33 +8325,33 @@
         <v>49</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J70" s="2">
         <v>2023</v>
@@ -8740,18 +8363,18 @@
         <v>50</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>31</v>
@@ -8760,13 +8383,13 @@
         <v>5</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J71" s="2">
         <v>2023</v>
@@ -8778,33 +8401,33 @@
         <v>51</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J72" s="2">
         <v>2023</v>
@@ -8816,18 +8439,18 @@
         <v>52</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>31</v>
@@ -8836,13 +8459,13 @@
         <v>5</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J73" s="2">
         <v>2023</v>
@@ -8854,33 +8477,33 @@
         <v>53</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J74" s="2">
         <v>2023</v>
@@ -8892,18 +8515,18 @@
         <v>54</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>31</v>
@@ -8912,13 +8535,13 @@
         <v>5</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J75" s="2">
         <v>2023</v>
@@ -8930,33 +8553,33 @@
         <v>55</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J76" s="2">
         <v>2023</v>
@@ -8968,18 +8591,18 @@
         <v>56</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>31</v>
@@ -8988,13 +8611,13 @@
         <v>5</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J77" s="2">
         <v>2023</v>
@@ -9006,33 +8629,33 @@
         <v>57</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J78" s="2">
         <v>2023</v>
@@ -9044,18 +8667,18 @@
         <v>58</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>31</v>
@@ -9064,13 +8687,13 @@
         <v>5</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J79" s="2">
         <v>2023</v>
@@ -9082,18 +8705,18 @@
         <v>59</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>31</v>
@@ -9102,13 +8725,13 @@
         <v>5</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J80" s="2">
         <v>2023</v>
@@ -9120,18 +8743,18 @@
         <v>60</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>31</v>
@@ -9140,13 +8763,13 @@
         <v>5</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J81" s="2">
         <v>2023</v>
@@ -9158,424 +8781,41 @@
         <v>61</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J82" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K82" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M82" s="2">
-        <v>62</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J83" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K83" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M83" s="2">
-        <v>63</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J84" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K84" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M84" s="2">
-        <v>64</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J85" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K85" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M85" s="2">
-        <v>65</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J86" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K86" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M86" s="2">
-        <v>66</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J87" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K87" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M87" s="2">
-        <v>67</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J88" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K88" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M88" s="2">
-        <v>68</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J89" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K89" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M89" s="2">
-        <v>69</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H90" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J90" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K90" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M90" s="2">
-        <v>70</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H91" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J91" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K91" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M91" s="2">
-        <v>71</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" s="11"/>
-      <c r="H92" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J92" s="2">
-        <v>2023</v>
-      </c>
-      <c r="K92" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M92" s="2">
-        <v>72</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K89" s="18"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K92" s="18"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K93" s="18"/>
@@ -9844,69 +9084,32 @@
     <row r="181" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K181" s="18"/>
     </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K182" s="18"/>
-    </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K183" s="18"/>
-    </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K184" s="18"/>
-    </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K185" s="18"/>
-    </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K186" s="18"/>
-    </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K187" s="18"/>
-    </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K188" s="18"/>
-    </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K189" s="18"/>
-    </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K190" s="18"/>
-    </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K191" s="18"/>
-    </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K192" s="18"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:N78" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}"/>
+  <autoFilter ref="A1:N81" xr:uid="{CF87A273-214F-4086-84B2-968343C1FFDC}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{F37CAFEA-4CF5-4746-8B55-2193B50B102D}">
       <formula1>"basis, referentie, basis en referentie"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K192" xr:uid="{BBA22A0F-8787-4DA8-BFCE-E45BACCE54D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K181" xr:uid="{BBA22A0F-8787-4DA8-BFCE-E45BACCE54D2}">
       <formula1>"geen, niveau, indicator"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E49:E91 E3:E43 E46 E2 E93:E1048576" numberStoredAsText="1"/>
+    <ignoredError sqref="E49:E81 E3:E43 E46 E2 E82:E1048576" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10187,29 +9390,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10236,9 +9432,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>